--- a/MedicalLink/Templates/BC_35_HoaDonChungTuCuaThuocVTYTSuDung.xlsx
+++ b/MedicalLink/Templates/BC_35_HoaDonChungTuCuaThuocVTYTSuDung.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$11</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>STT</t>
   </si>
@@ -125,10 +125,16 @@
     <t>&amp;=[DATA1].NGUOINHANHANG</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].KHONHANHANG</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].GHICHU</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MEDICINESTOREID</t>
+  </si>
+  <si>
+    <t>ID kho nhận hàng</t>
+  </si>
+  <si>
+    <t>&amp;=&amp;=IF(K{r}=3,"Kho Vật Tư Bệnh Viện",IF(K{r}=8,"Kho Hóa Chất Bệnh Viện",IF(K{r}&lt;&gt;0,"Kho Thuốc Bệnh Viện","")))</t>
   </si>
 </sst>
 </file>
@@ -190,7 +196,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +215,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -275,7 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -313,9 +325,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -335,6 +344,18 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,6 +376,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -666,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,56 +708,60 @@
     <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="20.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="9" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="F1" s="26" t="s">
+      <c r="B1" s="18"/>
+      <c r="F1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="17" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="2"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="M2" s="10"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="25"/>
+      <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="18" t="s">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="26"/>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -764,31 +792,34 @@
       <c r="J5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="13" t="s">
@@ -797,65 +828,76 @@
       <c r="H6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="K6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="8">
         <f>SUM(E6:E6)/2</f>
         <v>0</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="12"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="12"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K10" s="25" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="str">
+        <f>IF(J6="1","fdf","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="25"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K10:M10"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="F2:K2"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="A7:D7"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:J6 L6:M6">
+  <conditionalFormatting sqref="A6:J6 M6:N6">
     <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>$M6=1</formula>
+      <formula>$N6=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
+  <conditionalFormatting sqref="K6:L6">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>$M6=1</formula>
+      <formula>$N6=1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
